--- a/medicine/Psychotrope/Château_Sigognac/Château_Sigognac.xlsx
+++ b/medicine/Psychotrope/Château_Sigognac/Château_Sigognac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Sigognac</t>
+          <t>Château_Sigognac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Château Sigognac est un domaine viticole de 47 hectares situé à la sortie de Saint-Yzans-de-Médoc, dans le département de la Girdonde. Son sol argilo-sableux et argilo-calcaire correspond au terrain caractéristique du Médoc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Sigognac</t>
+          <t>Château_Sigognac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1928, le Domaine de Sigognac s'étendait sur 100 hectares. À la suite des gelées tristement célèbres de 1956, la quasi-totalité du vignoble  a du être arrachée. Ce n’est que le 20 février 1964 que Paul-François Grasset rachète la propriété de 58 hectares sur laquelle il ne reste que 4 hectares de vignes. De 1965 à 1968, le vignoble est entretenu, reconstitué et agrandi par Colette Bonny, l'épouse de Paul-François Grasset.
-La propriété est cédée en mars 2009 aux Vignobles Allard SAS[1]
+La propriété est cédée en mars 2009 aux Vignobles Allard SAS
 , gérés par la famille Allard, déjà propriétaire du Château de Gironville à Macau. Depuis, des travaux de restructuration et d’amélioration de la vigne ont été mis en place, parmi lesquels la complantation, le travail du sol et la restructuration des parcelles trop anciennes.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Sigognac</t>
+          <t>Château_Sigognac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’âge moyen de la vigne est de 35 à 40 ans. La plantation est traditionnelle, respectant une densité moyenne de 5 500 pieds/hectare.
 Le château Sigognac propose deux références en rouge (Château Sigognac et Benjamin de Sigognac) et 1 référence en blanc (Blanc de l'Estuaire). Les cépages cultivés sont principalement le cabernet sauvignon, le cabernet franc, le merlot et le petit verdot pour les vins rouges ; le sémillon pour le vin blanc.
